--- a/game-server/config/excel/configcommonvalue.xlsx
+++ b/game-server/config/excel/configcommonvalue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14175"/>
+    <workbookView windowWidth="28800" windowHeight="13575"/>
   </bookViews>
   <sheets>
     <sheet name="configconstant" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>字段</t>
   </si>
@@ -35,6 +35,24 @@
     <t>主键</t>
   </si>
   <si>
+    <t>关键字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>EXPORT</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -50,10 +68,10 @@
     <t>key</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>desc</t>
   </si>
   <si>
     <t>playerMaxLevel</t>
@@ -72,7 +90,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -84,6 +102,17 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -555,28 +584,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,126 +605,137 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -978,13 +1009,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1245,70 +1269,96 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="40.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="24.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="24.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
         <v>999</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
